--- a/biology/Zoologie/Drassodella_septemmaculata/Drassodella_septemmaculata.xlsx
+++ b/biology/Zoologie/Drassodella_septemmaculata/Drassodella_septemmaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drassodella septemmaculata est une espèce d'araignées aranéomorphes de la famille des Gallieniellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drassodella septemmaculata est une espèce d'araignées aranéomorphes de la famille des Gallieniellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1]. Elle se rencontre dans l'Ouest du Cap-Occidental et dans le Sud-Ouest du Cap-du-Nord[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle se rencontre dans l'Ouest du Cap-Occidental et dans le Sud-Ouest du Cap-du-Nord.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 7 mm[3].
-Le mâle décrit par Tucker en 1923 mesure 5 mm et la femelle 6 mm[4].
-Le mâle décrit par Mbo et Haddad en 2019 mesure 4,80 mm et la femelle 6,36 mm, les mâles mesurent de 4,76 à 7,12 mm et les femelles de 5,98 à 6,40 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 7 mm.
+Le mâle décrit par Tucker en 1923 mesure 5 mm et la femelle 6 mm.
+Le mâle décrit par Mbo et Haddad en 2019 mesure 4,80 mm et la femelle 6,36 mm, les mâles mesurent de 4,76 à 7,12 mm et les femelles de 5,98 à 6,40 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Strand, 1909 : Spinnentiere von Südafrika und einigen Inseln gesammelt bei der deutschen Südpolar-Expedition. Deutsche Südpolar-Expedition 1901-1905. Berlin, vol. 10, no 5, p. 541-596 (texte intégral).</t>
         </is>
